--- a/assets/form/LKP/PKNLM.xlsx
+++ b/assets/form/LKP/PKNLM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\LKP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7091F45C-1795-41C5-BDFD-FD2C4D6A98A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7540AC07-8CA2-4DEA-96AF-EB8EE936BCFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA29CFD4-4901-4498-995F-42327E53D0F8}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA29CFD4-4901-4498-995F-42327E53D0F8}"/>
   </bookViews>
   <sheets>
     <sheet name="PKNLM" sheetId="1" r:id="rId1"/>
@@ -92,6 +92,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">ΔТ, </t>
@@ -102,6 +104,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>о</t>
@@ -111,6 +115,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>С</t>
@@ -122,6 +128,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Точка росы, </t>
@@ -132,6 +140,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>о</t>
@@ -141,6 +151,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>С</t>
@@ -152,6 +164,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Температура поверхности, </t>
@@ -162,6 +176,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>о</t>
@@ -171,6 +187,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>С</t>
@@ -185,6 +203,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Температура воздуха, </t>
@@ -195,6 +215,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>о</t>
@@ -204,6 +226,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>С</t>
@@ -231,9 +255,6 @@
     <t xml:space="preserve">контроля качества нанесения лакокрасочных материалов </t>
   </si>
   <si>
-    <t xml:space="preserve">«_____» _____________ 20____ г. </t>
-  </si>
-  <si>
     <t xml:space="preserve">от </t>
   </si>
   <si>
@@ -241,17 +262,28 @@
   </si>
   <si>
     <t xml:space="preserve">СТО Газпром 9.1 – 035 – 2014 </t>
+  </si>
+  <si>
+    <t>СТО Газпром 9.1-035-2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,6 +316,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -394,10 +438,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -406,22 +450,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -738,32 +786,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E741CB-641E-4887-8980-5590CA4570E8}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J1" s="12" t="s">
-        <v>33</v>
+      <c r="J1" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F4" s="12" t="s">
-        <v>32</v>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>30</v>
       </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -801,27 +847,27 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="8"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
@@ -1021,7 +1067,9 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1100,6 +1148,6 @@
     <mergeCell ref="G13:L13"/>
   </mergeCells>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>